--- a/Tables/aq_hmf_metrics_all_50_90.xlsx
+++ b/Tables/aq_hmf_metrics_all_50_90.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,11 @@
           <t>dec_hmf</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -542,1597 +547,5172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08791044951382962</v>
+        <v>1.958710644647035</v>
       </c>
       <c r="C2" t="n">
-        <v>48.27955732990713</v>
+        <v>196.7777777777778</v>
       </c>
       <c r="D2" t="n">
-        <v>12.07124170675548</v>
+        <v>72.86101190476191</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04338515749621663</v>
+        <v>1.459116551150861</v>
       </c>
       <c r="F2" t="n">
-        <v>79.25816666666667</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>7.850585534889239</v>
+        <v>28.4</v>
       </c>
       <c r="H2" t="n">
-        <v>201.6830871008174</v>
+        <v>286.8222222222222</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02588669285635498</v>
+        <v>0.3784075582297352</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02370502733273261</v>
+        <v>0.4062189183739204</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02352478444095972</v>
+        <v>0.3903492934709327</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01816772438775488</v>
+        <v>0.2904700312381368</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02016909064389179</v>
+        <v>0.3204263682406892</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02209783269631574</v>
+        <v>0.4388381781031584</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01791051473702865</v>
+        <v>0.5497350399163584</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0138500117274868</v>
+        <v>0.5649966616702066</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01241723311244512</v>
+        <v>0.4488038958281765</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01765191087465228</v>
+        <v>0.3844809781419805</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01286296125630391</v>
+        <v>0.3279039186351805</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0187633737793051</v>
+        <v>0.4429290155215085</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02769183715317969</v>
+        <v>0.08791044951382962</v>
       </c>
       <c r="C3" t="n">
-        <v>45.58800841514726</v>
+        <v>48.27955732990713</v>
       </c>
       <c r="D3" t="n">
-        <v>9.445105094132762</v>
+        <v>12.07124170675548</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006080115841631108</v>
+        <v>0.04338515749621663</v>
       </c>
       <c r="F3" t="n">
-        <v>80.66666666666667</v>
+        <v>79.25816666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>6.280239279187385</v>
+        <v>7.850585534889239</v>
       </c>
       <c r="H3" t="n">
-        <v>219.9095477920864</v>
+        <v>201.6830871008174</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00243237181598544</v>
+        <v>0.02588669285635498</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005986870036949313</v>
+        <v>0.02370502733273261</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00911476250447168</v>
+        <v>0.02352478444095972</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006571715507129279</v>
+        <v>0.01816772438775488</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003029253097680807</v>
+        <v>0.02016909064389179</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005204909366050309</v>
+        <v>0.02209783269631574</v>
       </c>
       <c r="O3" t="n">
-        <v>0.008402310216436436</v>
+        <v>0.01791051473702865</v>
       </c>
       <c r="P3" t="n">
-        <v>0.008403730871041593</v>
+        <v>0.0138500117274868</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.009028770776004389</v>
+        <v>0.01241723311244512</v>
       </c>
       <c r="R3" t="n">
-        <v>0.008452639256666547</v>
+        <v>0.01765191087465228</v>
       </c>
       <c r="S3" t="n">
-        <v>0.003019410292129699</v>
+        <v>0.01286296125630391</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00361875707461632</v>
+        <v>0.0187633737793051</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1237312510451666</v>
+        <v>0.0001899686397950107</v>
       </c>
       <c r="C4" t="n">
-        <v>39.71123557561835</v>
+        <v>8.043478260869565</v>
       </c>
       <c r="D4" t="n">
-        <v>7.691127474549881</v>
+        <v>1.26941019455665</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0245395678830845</v>
+        <v>9.022458554616896e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>91.93323636363637</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>6.709126876163243</v>
+        <v>1.631578947368421</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9203649067406</v>
+        <v>107.6046511627907</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04332967509504124</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04491364003992201</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03829855843835506</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01654168695119162</v>
+        <v>1.71260288236799e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006057932056968336</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002773859746374622</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.000595273138651407</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0005600457127899952</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0004745034954672512</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002128822356187507</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01400995630824593</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02691396058609629</v>
+        <v>0</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2902002305658773</v>
+        <v>0.04583540903192919</v>
       </c>
       <c r="C5" t="n">
-        <v>38.67543306939876</v>
+        <v>58.70967741935484</v>
       </c>
       <c r="D5" t="n">
-        <v>8.868220355085965</v>
+        <v>18.79896429735139</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09481430824201695</v>
+        <v>0.01361859924427433</v>
       </c>
       <c r="F5" t="n">
-        <v>94.67731372549019</v>
+        <v>92</v>
       </c>
       <c r="G5" t="n">
-        <v>5.778240153962247</v>
+        <v>7.891304347826087</v>
       </c>
       <c r="H5" t="n">
-        <v>202.3120522897386</v>
+        <v>233.195652173913</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006270587341763811</v>
+        <v>0.0045169901022456</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01939494715158813</v>
+        <v>0.008891399218490879</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06882531833605257</v>
+        <v>0.01709422334157888</v>
       </c>
       <c r="L5" t="n">
-        <v>0.12903578273151</v>
+        <v>0.01664650001661696</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08315172181527226</v>
+        <v>0.005693915268764352</v>
       </c>
       <c r="N5" t="n">
-        <v>0.07505521009397018</v>
+        <v>0.008609805169161841</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05343950013219764</v>
+        <v>0.01942116134360775</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02473332498162455</v>
+        <v>0.01692769309939814</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0502406454032231</v>
+        <v>0.01821292001009712</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07161056000014433</v>
+        <v>0.01376688059869248</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02357254333967143</v>
+        <v>0.00462804715650528</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01009463976199871</v>
+        <v>0.00779968284141312</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7740411423663427</v>
+        <v>0.02769183715317969</v>
       </c>
       <c r="C6" t="n">
-        <v>57.11875038468481</v>
+        <v>45.58800841514726</v>
       </c>
       <c r="D6" t="n">
-        <v>19.34968637501469</v>
+        <v>9.445105094132762</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3092311190452768</v>
+        <v>0.006080115841631108</v>
       </c>
       <c r="F6" t="n">
-        <v>69.52941176470588</v>
+        <v>80.66666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>3.592461930308747</v>
+        <v>6.280239279187385</v>
       </c>
       <c r="H6" t="n">
-        <v>152.369841891202</v>
+        <v>219.9095477920864</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2295258273940546</v>
+        <v>0.00243237181598544</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2328268546503833</v>
+        <v>0.005986870036949313</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2320371702704828</v>
+        <v>0.00911476250447168</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2416771958028139</v>
+        <v>0.006571715507129279</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1526103440313375</v>
+        <v>0.003029253097680807</v>
       </c>
       <c r="N6" t="n">
-        <v>0.09788426684641761</v>
+        <v>0.005204909366050309</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0338419571032455</v>
+        <v>0.008402310216436436</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002270757911397459</v>
+        <v>0.008403730871041593</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.006742781394265255</v>
+        <v>0.009028770776004389</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02292398207908438</v>
+        <v>0.008452639256666547</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09550118992363342</v>
+        <v>0.003019410292129699</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1687338231292783</v>
+        <v>0.00361875707461632</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3279455142894672</v>
+        <v>0.005851708270698894</v>
       </c>
       <c r="C7" t="n">
-        <v>38.17085875157074</v>
+        <v>38.75</v>
       </c>
       <c r="D7" t="n">
-        <v>5.300434014388457</v>
+        <v>4.615995689093515</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06263749738664069</v>
+        <v>0.0008805756923557014</v>
       </c>
       <c r="F7" t="n">
-        <v>95.19892222222222</v>
+        <v>62</v>
       </c>
       <c r="G7" t="n">
-        <v>9.257141050745116</v>
+        <v>3.290322580645161</v>
       </c>
       <c r="H7" t="n">
-        <v>170.7439368498869</v>
+        <v>210.1136363636364</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0729240381755844</v>
+        <v>0.00055129502308608</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06370160794229222</v>
+        <v>0.000792445819427136</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07427724569001894</v>
+        <v>0.00029984142527808</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07352121502116518</v>
+        <v>0.00100024163582112</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08059736097146368</v>
+        <v>0.0007227591926184</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0684672491100343</v>
+        <v>0.001229670144110191</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07469745331455629</v>
+        <v>0.002397515268181187</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04597956236091401</v>
+        <v>0.001553763669981342</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05737861014000029</v>
+        <v>0.00120707921012616</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05661395909316047</v>
+        <v>0.002147092457784349</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05273818306255462</v>
+        <v>0.001072352881728886</v>
       </c>
       <c r="T7" t="n">
-        <v>0.05262265912541726</v>
+        <v>0.000878646831172992</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8224510766567509</v>
+        <v>2.714932262655245</v>
       </c>
       <c r="C8" t="n">
-        <v>42.19214800667191</v>
+        <v>54.73333333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>12.4521673540045</v>
+        <v>22.15079365079366</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2744884885272957</v>
+        <v>0.4595582128710188</v>
       </c>
       <c r="F8" t="n">
-        <v>88.53990909090909</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>4.48782639480796</v>
+        <v>18</v>
       </c>
       <c r="H8" t="n">
-        <v>187.9532407436157</v>
+        <v>173.5277777777778</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07612512698733066</v>
+        <v>0.9068664010764367</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08748210342489859</v>
+        <v>0.82445773133997</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1516418369190351</v>
+        <v>0.8879806484182173</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1254752596635249</v>
+        <v>0.3685210020513688</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3127547397027974</v>
+        <v>0.07434327559841281</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3866841066152857</v>
+        <v>0.05521105482681599</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08344638332524836</v>
+        <v>0.006031328618785177</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0001469092005575773</v>
+        <v>0.00488581136584128</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0001494351044624378</v>
+        <v>0.00489559766802624</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0003959004065733818</v>
+        <v>0.031071509437248</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01175754318603525</v>
+        <v>0.477134658135648</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04000338143604951</v>
+        <v>0.7558433017014241</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1249843872616403</v>
+        <v>0.1237312510451666</v>
       </c>
       <c r="C9" t="n">
-        <v>41.84501860485386</v>
+        <v>39.71123557561835</v>
       </c>
       <c r="D9" t="n">
-        <v>7.97364095041821</v>
+        <v>7.691127474549881</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01934560671315624</v>
+        <v>0.0245395678830845</v>
       </c>
       <c r="F9" t="n">
-        <v>87.89313333333332</v>
+        <v>91.93323636363637</v>
       </c>
       <c r="G9" t="n">
-        <v>5.67610043337099</v>
+        <v>6.709126876163243</v>
       </c>
       <c r="H9" t="n">
-        <v>196.1049859843341</v>
+        <v>131.9203649067406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01254672441466438</v>
+        <v>0.04332967509504124</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01987543705290518</v>
+        <v>0.04491364003992201</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02144628642532902</v>
+        <v>0.03829855843835506</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02303559134397736</v>
+        <v>0.01654168695119162</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03159582950958351</v>
+        <v>0.006057932056968336</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03682022193181885</v>
+        <v>0.002773859746374622</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02634103952959028</v>
+        <v>0.000595273138651407</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02040470457862564</v>
+        <v>0.0005600457127899952</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01342641412260949</v>
+        <v>0.0004745034954672512</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03061208652010788</v>
+        <v>0.002128822356187507</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02293082626656977</v>
+        <v>0.01400995630824593</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02760263220534565</v>
+        <v>0.02691396058609629</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2303262362825477</v>
+        <v>0.001293144301008336</v>
       </c>
       <c r="C10" t="n">
-        <v>50.16438661171986</v>
+        <v>27.66</v>
       </c>
       <c r="D10" t="n">
-        <v>19.02056074744514</v>
+        <v>1.925518897580173</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08960105148151316</v>
+        <v>9.734548718039045e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>77.86176470588236</v>
+        <v>66.667</v>
       </c>
       <c r="G10" t="n">
-        <v>4.173499035144144</v>
+        <v>2.783783783783784</v>
       </c>
       <c r="H10" t="n">
-        <v>205.6289149552501</v>
+        <v>111.12</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05635844916361832</v>
+        <v>0.0001197843387439104</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05881350114411555</v>
+        <v>0.000114022070814528</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08637595423167807</v>
+        <v>0.000241830400659456</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09093827968348105</v>
+        <v>8.004017206478721e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03537346263253002</v>
+        <v>3.38728384376928e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01676876743383444</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06148419651692783</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03024929590611076</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02981596938046384</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.05000734769146501</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01965542967245771</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0569122645841563</v>
+        <v>7.851876453066241e-05</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07159324140230176</v>
+        <v>2.620777285531257</v>
       </c>
       <c r="C11" t="n">
-        <v>40.65967810442116</v>
+        <v>57.03125</v>
       </c>
       <c r="D11" t="n">
-        <v>9.256030523128864</v>
+        <v>24.93452380952381</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01987206300450419</v>
+        <v>1.142383504758437</v>
       </c>
       <c r="F11" t="n">
-        <v>89.64560317460317</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>5.672075205157015</v>
+        <v>13.91304347826087</v>
       </c>
       <c r="H11" t="n">
-        <v>229.1268447608139</v>
+        <v>223.3095238095238</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003419866353178932</v>
+        <v>0.04549689525411692</v>
       </c>
       <c r="J11" t="n">
-        <v>0.007757400693009458</v>
+        <v>0.177743713434336</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01942632412654354</v>
+        <v>0.47578248825786</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01580620185577819</v>
+        <v>1.239306726509006</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02127629662975079</v>
+        <v>1.04215380500016</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02905094590565421</v>
+        <v>0.7062975769577675</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01784528663119744</v>
+        <v>0.52494336564012</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01260942246907595</v>
+        <v>0.153155629194624</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01117458212903059</v>
+        <v>0.3880268816336641</v>
       </c>
       <c r="R11" t="n">
-        <v>0.008969233920203637</v>
+        <v>0.6272204175377279</v>
       </c>
       <c r="S11" t="n">
-        <v>0.006107115096697729</v>
+        <v>0.244902212178624</v>
       </c>
       <c r="T11" t="n">
-        <v>0.003995951647135833</v>
+        <v>0.058554708073344</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2067131082817372</v>
+        <v>0.2902002305658773</v>
       </c>
       <c r="C12" t="n">
-        <v>43.19133265706515</v>
+        <v>38.67543306939876</v>
       </c>
       <c r="D12" t="n">
-        <v>11.20704884694308</v>
+        <v>8.868220355085965</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07894584291134524</v>
+        <v>0.09481430824201695</v>
       </c>
       <c r="F12" t="n">
-        <v>85.982375</v>
+        <v>94.67731372549019</v>
       </c>
       <c r="G12" t="n">
-        <v>5.012333830718093</v>
+        <v>5.778240153962247</v>
       </c>
       <c r="H12" t="n">
-        <v>227.9497246893015</v>
+        <v>202.3120522897386</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003619364415371899</v>
+        <v>0.006270587341763811</v>
       </c>
       <c r="J12" t="n">
-        <v>0.007147356992271483</v>
+        <v>0.01939494715158813</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03578883228580875</v>
+        <v>0.06882531833605257</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04801321552758689</v>
+        <v>0.12903578273151</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05747839199108945</v>
+        <v>0.08315172181527226</v>
       </c>
       <c r="N12" t="n">
-        <v>0.07443745895136178</v>
+        <v>0.07505521009397018</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06244275789211803</v>
+        <v>0.05343950013219764</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0515113703720223</v>
+        <v>0.02473332498162455</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04180309175235675</v>
+        <v>0.0502406454032231</v>
       </c>
       <c r="R12" t="n">
-        <v>0.03260795125273865</v>
+        <v>0.07161056000014433</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02475145625377825</v>
+        <v>0.02357254333967143</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01127186576668089</v>
+        <v>0.01009463976199871</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3780909907825274</v>
+        <v>0.002503947742799328</v>
       </c>
       <c r="C13" t="n">
-        <v>39.38535128945195</v>
+        <v>35.76</v>
       </c>
       <c r="D13" t="n">
-        <v>10.21934383506996</v>
+        <v>2.465486073744172</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1257266901276941</v>
+        <v>0.0001690829414134959</v>
       </c>
       <c r="F13" t="n">
-        <v>93.27272727272727</v>
+        <v>64</v>
       </c>
       <c r="G13" t="n">
-        <v>5.055620933092772</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H13" t="n">
-        <v>150.5785744007468</v>
+        <v>183.3541666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07502253328559697</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07418453647320779</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1165591084752622</v>
+        <v>0.0005784193906420607</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1207214340676027</v>
+        <v>0.0002149896069474897</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1380476373979684</v>
+        <v>0.0002405057900606837</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0311121096326268</v>
+        <v>0.0005468689455069731</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02549939656135996</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04024973331602702</v>
+        <v>0.000354788405284032</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02759142253469069</v>
+        <v>0.0002164966264400375</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04489975167032218</v>
+        <v>0.000227602884253752</v>
       </c>
       <c r="S13" t="n">
-        <v>0.06827533232348502</v>
+        <v>0.000150740965503335</v>
       </c>
       <c r="T13" t="n">
-        <v>0.09161643731642223</v>
+        <v>0</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5722150087133919</v>
+        <v>2.58571155616814</v>
       </c>
       <c r="C14" t="n">
-        <v>37.510008664257</v>
+        <v>91.25</v>
       </c>
       <c r="D14" t="n">
-        <v>5.789012461718628</v>
+        <v>49.06666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1253484962345156</v>
+        <v>1.190544000170998</v>
       </c>
       <c r="F14" t="n">
-        <v>96.79504000000001</v>
+        <v>96</v>
       </c>
       <c r="G14" t="n">
-        <v>8.388643336232342</v>
+        <v>6.270833333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>156.5998174574189</v>
+        <v>202.55</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1133458841846234</v>
+        <v>0.7286207798645999</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1251960226389266</v>
+        <v>0.939997625584896</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1675069516267949</v>
+        <v>0.8696891025730252</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1653551077778264</v>
+        <v>0.8489993541690684</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1399927300532599</v>
+        <v>0.4985932765118178</v>
       </c>
       <c r="N14" t="n">
-        <v>0.09253416418478259</v>
+        <v>0.33151098651552</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06994729201140526</v>
+        <v>0.1868408968404384</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05790180977183292</v>
+        <v>0.0236176092730368</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.05051039079567288</v>
+        <v>0.052112059134912</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08853619431143744</v>
+        <v>0.206001660993408</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05202330946732223</v>
+        <v>0.547135844657472</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1074967426194561</v>
+        <v>0.6888803945736074</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06319440364545209</v>
+        <v>0.7740411423663427</v>
       </c>
       <c r="C15" t="n">
-        <v>37.54740112394527</v>
+        <v>57.11875038468481</v>
       </c>
       <c r="D15" t="n">
-        <v>4.274562004567976</v>
+        <v>19.34968637501469</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01119322202148215</v>
+        <v>0.3092311190452768</v>
       </c>
       <c r="F15" t="n">
-        <v>96.85933333333334</v>
+        <v>69.52941176470588</v>
       </c>
       <c r="G15" t="n">
-        <v>11.18326897406513</v>
+        <v>3.592461930308747</v>
       </c>
       <c r="H15" t="n">
-        <v>177.00425760461</v>
+        <v>152.369841891202</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0111966073203253</v>
+        <v>0.2295258273940546</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01432893935973253</v>
+        <v>0.2328268546503833</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01808024387005558</v>
+        <v>0.2320371702704828</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01161323880128753</v>
+        <v>0.2416771958028139</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00998087936681811</v>
+        <v>0.1526103440313375</v>
       </c>
       <c r="N15" t="n">
-        <v>0.008065972854403384</v>
+        <v>0.09788426684641761</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01033201966189324</v>
+        <v>0.0338419571032455</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00681096107690716</v>
+        <v>0.002270757911397459</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02606247248842048</v>
+        <v>0.006742781394265255</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01927876516240684</v>
+        <v>0.02292398207908438</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01026876715961485</v>
+        <v>0.09550118992363342</v>
       </c>
       <c r="T15" t="n">
-        <v>0.008969666813620941</v>
+        <v>0.1687338231292783</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2736408444946237</v>
+        <v>0.00183380623492873</v>
       </c>
       <c r="C16" t="n">
-        <v>41.25533316185729</v>
+        <v>38.02083333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>20.72311589410549</v>
+        <v>5.410784296721797</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1574706953193724</v>
+        <v>0.000426084472394296</v>
       </c>
       <c r="F16" t="n">
-        <v>88.98685714285715</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
-        <v>2.619003526092749</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>234.1795328836884</v>
+        <v>130.25</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01354995162840668</v>
+        <v>0.0005595282028687232</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01216278934835016</v>
+        <v>0.0008490529906329667</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01885687065314142</v>
+        <v>0.0008986379019019668</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03049216310331453</v>
+        <v>0.0003517029608000407</v>
       </c>
       <c r="M16" t="n">
-        <v>0.112737403202116</v>
+        <v>0.0001908178367572047</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1492867787712853</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0377280335725616</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.00145181928813168</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.003427600329747669</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.003665378971069252</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.005510745598864926</v>
+        <v>4.93718945231232e-05</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01044526837650516</v>
+        <v>0.00020961909769392</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1976375707452317</v>
+        <v>1.873428525900086</v>
       </c>
       <c r="C17" t="n">
-        <v>42.94956080546897</v>
+        <v>52.2</v>
       </c>
       <c r="D17" t="n">
-        <v>12.22631710660159</v>
+        <v>20.31551020408163</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05483607848421771</v>
+        <v>0.4923015653063281</v>
       </c>
       <c r="F17" t="n">
-        <v>87.3558</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>5.471468915976236</v>
+        <v>23.6734693877551</v>
       </c>
       <c r="H17" t="n">
-        <v>159.1224065394636</v>
+        <v>223.98</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05635660609971611</v>
+        <v>0.6330339470499841</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05080379423967259</v>
+        <v>0.4290871684734919</v>
       </c>
       <c r="K17" t="n">
-        <v>0.049710161599043</v>
+        <v>0.4786789439785566</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04030102758013471</v>
+        <v>0.5049064679563113</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02293152539704072</v>
+        <v>0.48943161284544</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01840038144531432</v>
+        <v>0.809531071991712</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002944289537183348</v>
+        <v>0.7841274625699201</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0009526073082127521</v>
+        <v>0.298115230309344</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.001006540317380743</v>
+        <v>0.6261398466714719</v>
       </c>
       <c r="R17" t="n">
-        <v>0.003347469095904368</v>
+        <v>0.40185003346992</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02536439292285567</v>
+        <v>0.501181000647264</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04840588098737357</v>
+        <v>0.435018607661088</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3249813211495739</v>
+        <v>0.3279455142894672</v>
       </c>
       <c r="C18" t="n">
-        <v>42.15796002146218</v>
+        <v>38.17085875157074</v>
       </c>
       <c r="D18" t="n">
-        <v>13.17494761139002</v>
+        <v>5.300434014388457</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1340981908144946</v>
+        <v>0.06263749738664069</v>
       </c>
       <c r="F18" t="n">
-        <v>88.48548076923076</v>
+        <v>95.19892222222222</v>
       </c>
       <c r="G18" t="n">
-        <v>4.92873129607123</v>
+        <v>9.257141050745116</v>
       </c>
       <c r="H18" t="n">
-        <v>176.4774534140397</v>
+        <v>170.7439368498869</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04240747953130856</v>
+        <v>0.0729240381755844</v>
       </c>
       <c r="J18" t="n">
-        <v>0.03554627881468779</v>
+        <v>0.06370160794229222</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03721977260430807</v>
+        <v>0.07427724569001894</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0317363322041785</v>
+        <v>0.07352121502116518</v>
       </c>
       <c r="M18" t="n">
-        <v>0.08673608871040865</v>
+        <v>0.08059736097146368</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1176244304407748</v>
+        <v>0.0684672491100343</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0294491604750454</v>
+        <v>0.07469745331455629</v>
       </c>
       <c r="P18" t="n">
-        <v>0.002858163338872899</v>
+        <v>0.04597956236091401</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.003099924833553287</v>
+        <v>0.05737861014000029</v>
       </c>
       <c r="R18" t="n">
-        <v>0.006208323849870911</v>
+        <v>0.05661395909316047</v>
       </c>
       <c r="S18" t="n">
-        <v>0.02893384719590538</v>
+        <v>0.05273818306255462</v>
       </c>
       <c r="T18" t="n">
-        <v>0.04163315925990947</v>
+        <v>0.05262265912541726</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1863170036060816</v>
+        <v>0.004884862298410634</v>
       </c>
       <c r="C19" t="n">
-        <v>37.06337415837456</v>
+        <v>33.74</v>
       </c>
       <c r="D19" t="n">
-        <v>3.185050030352067</v>
+        <v>1.512558683257162</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0221902807053656</v>
+        <v>0.0003971353285958377</v>
       </c>
       <c r="F19" t="n">
-        <v>98.37189268292684</v>
+        <v>70</v>
       </c>
       <c r="G19" t="n">
-        <v>12.29454571435586</v>
+        <v>2.885714285714286</v>
       </c>
       <c r="H19" t="n">
-        <v>167.9584971865991</v>
+        <v>135.68</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03206200316850002</v>
+        <v>0.0004377492315728702</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03569741944988686</v>
+        <v>0.0004537370076545779</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04624140402340191</v>
+        <v>0.0006619271304740977</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03946208245259007</v>
+        <v>0.0008144328075597928</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02773988849930562</v>
+        <v>0.001093131393222118</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03384186101600576</v>
+        <v>0.001263595105244304</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01897412811925424</v>
+        <v>0.0001826399227462488</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01505761411332526</v>
+        <v>0.0006279870112088832</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.04859285671349306</v>
+        <v>0.0003639137208823398</v>
       </c>
       <c r="R19" t="n">
-        <v>0.02228435653848272</v>
+        <v>0.0009132662297284541</v>
       </c>
       <c r="S19" t="n">
-        <v>0.02197233663387704</v>
+        <v>0.0006370317479093105</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02836732758805773</v>
+        <v>0.0004747563536975079</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1161754354183892</v>
+        <v>8.960389787402981</v>
       </c>
       <c r="C20" t="n">
-        <v>52.19702366531654</v>
+        <v>75.625</v>
       </c>
       <c r="D20" t="n">
-        <v>22.25147275265112</v>
+        <v>37.46319444444445</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06064995171898954</v>
+        <v>2.639241876870535</v>
       </c>
       <c r="F20" t="n">
-        <v>71.2091875</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>3.496292753716059</v>
+        <v>7.73469387755102</v>
       </c>
       <c r="H20" t="n">
-        <v>234.9656948933186</v>
+        <v>241.84</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00415290907877076</v>
+        <v>0.7356037142361599</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01559022772316103</v>
+        <v>0.9317375205263999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.006311269007837156</v>
+        <v>1.713714962161745</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02025646847781229</v>
+        <v>1.343382720585433</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05203702889421468</v>
+        <v>3.37240050919632</v>
       </c>
       <c r="N20" t="n">
-        <v>0.05224578798050653</v>
+        <v>4.389008252648727</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02532288016441372</v>
+        <v>1.17278346362976</v>
       </c>
       <c r="P20" t="n">
-        <v>0.006987516371993522</v>
+        <v>0.0022168692866208</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.003045853423739829</v>
+        <v>0.002079589214304</v>
       </c>
       <c r="R20" t="n">
-        <v>0.002755649905886783</v>
+        <v>0.00533108811525696</v>
       </c>
       <c r="S20" t="n">
-        <v>0.005097550564227706</v>
+        <v>0.06030808721481601</v>
       </c>
       <c r="T20" t="n">
-        <v>0.003420371593589724</v>
+        <v>0.25933700790144</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1200517262702408</v>
+        <v>0.8224510766567509</v>
       </c>
       <c r="C21" t="n">
-        <v>36.97946158545813</v>
+        <v>42.19214800667191</v>
       </c>
       <c r="D21" t="n">
-        <v>4.468139587952599</v>
+        <v>12.4521673540045</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01843949868155686</v>
+        <v>0.2744884885272957</v>
       </c>
       <c r="F21" t="n">
-        <v>98.45833566433566</v>
+        <v>88.53990909090909</v>
       </c>
       <c r="G21" t="n">
-        <v>10.33366175348841</v>
+        <v>4.48782639480796</v>
       </c>
       <c r="H21" t="n">
-        <v>183.8867452712803</v>
+        <v>187.9532407436157</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01782519287742545</v>
+        <v>0.07612512698733066</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01954068278691077</v>
+        <v>0.08748210342489859</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02866832714216121</v>
+        <v>0.1516418369190351</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02387334691495033</v>
+        <v>0.1254752596635249</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02249076856065419</v>
+        <v>0.3127547397027974</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0254613763925903</v>
+        <v>0.3866841066152857</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02402746281505069</v>
+        <v>0.08344638332524836</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01768351491364164</v>
+        <v>0.0001469092005575773</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.02064496414887514</v>
+        <v>0.0001494351044624378</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01751709713519818</v>
+        <v>0.0003959004065733818</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01197118421739367</v>
+        <v>0.01175754318603525</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01572414102893812</v>
+        <v>0.04000338143604951</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2095843569580451</v>
+        <v>0.005320417709635972</v>
       </c>
       <c r="C22" t="n">
-        <v>60.61460151400076</v>
+        <v>36.19148936170212</v>
       </c>
       <c r="D22" t="n">
-        <v>24.82589149024807</v>
+        <v>4.573206555349413</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09335542484878323</v>
+        <v>0.001817395017457555</v>
       </c>
       <c r="F22" t="n">
-        <v>67.65300000000001</v>
+        <v>48</v>
       </c>
       <c r="G22" t="n">
-        <v>3.243834184943906</v>
+        <v>1.694444444444444</v>
       </c>
       <c r="H22" t="n">
-        <v>185.5223022724275</v>
+        <v>108.1428571428571</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00513421878292155</v>
+        <v>0.00121995771195984</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03110854972606713</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03556099391391501</v>
+        <v>0.001540302799524048</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05578126887213621</v>
+        <v>0.002045113469749555</v>
       </c>
       <c r="M22" t="n">
-        <v>0.07981836925487597</v>
+        <v>0.00148721211017064</v>
       </c>
       <c r="N22" t="n">
-        <v>0.07878300759850623</v>
+        <v>0.0009742263825127965</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02053350596032033</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.003951899111496</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.004229111529425299</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.004969880943775367</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.002139126734776262</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.00158651181554934</v>
+        <v>0</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4000997660041888</v>
+        <v>0.5616983481534817</v>
       </c>
       <c r="C23" t="n">
-        <v>37.46314617472733</v>
+        <v>56.9375</v>
       </c>
       <c r="D23" t="n">
-        <v>4.712999910329367</v>
+        <v>21.49912280701755</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05037249094614927</v>
+        <v>0.07388627942087282</v>
       </c>
       <c r="F23" t="n">
-        <v>93.98912903225806</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>8.661210400455056</v>
+        <v>10.29166666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>156.9327205560713</v>
+        <v>222.0277777777778</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08770312344108919</v>
+        <v>0.04913061155545953</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08803739855896682</v>
+        <v>0.1004921495712133</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1190941266251778</v>
+        <v>0.0828436693266288</v>
       </c>
       <c r="L23" t="n">
-        <v>0.09203711920304974</v>
+        <v>0.1404360116968563</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05518318169874965</v>
+        <v>0.1560996751019328</v>
       </c>
       <c r="N23" t="n">
-        <v>0.03237825136516854</v>
+        <v>0.2193880537877056</v>
       </c>
       <c r="O23" t="n">
-        <v>0.06446169040681154</v>
+        <v>0.1192884994332058</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01946236736582665</v>
+        <v>0.1205950727155457</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.04525340931410984</v>
+        <v>0.04352403528415488</v>
       </c>
       <c r="R23" t="n">
-        <v>0.04584345171340388</v>
+        <v>0.1822725966121536</v>
       </c>
       <c r="S23" t="n">
-        <v>0.04955333051334894</v>
+        <v>0.1014390997730208</v>
       </c>
       <c r="T23" t="n">
-        <v>0.08279486832183276</v>
+        <v>0.1212767498271168</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1835133472284905</v>
+        <v>0.1249843872616403</v>
       </c>
       <c r="C24" t="n">
-        <v>40.76226746395799</v>
+        <v>41.84501860485386</v>
       </c>
       <c r="D24" t="n">
-        <v>10.8633368125298</v>
+        <v>7.97364095041821</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06021251266637449</v>
+        <v>0.01934560671315624</v>
       </c>
       <c r="F24" t="n">
-        <v>90.09104000000001</v>
+        <v>87.89313333333332</v>
       </c>
       <c r="G24" t="n">
-        <v>5.019925932800756</v>
+        <v>5.67610043337099</v>
       </c>
       <c r="H24" t="n">
-        <v>212.0989451177527</v>
+        <v>196.1049859843341</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0491136565518296</v>
+        <v>0.01254672441466438</v>
       </c>
       <c r="J24" t="n">
-        <v>0.05443533818289285</v>
+        <v>0.01987543705290518</v>
       </c>
       <c r="K24" t="n">
-        <v>0.06744914485769231</v>
+        <v>0.02144628642532902</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04991765641726562</v>
+        <v>0.02303559134397736</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01933756270101967</v>
+        <v>0.03159582950958351</v>
       </c>
       <c r="N24" t="n">
-        <v>0.02442595751322062</v>
+        <v>0.03682022193181885</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03929044278258456</v>
+        <v>0.02634103952959028</v>
       </c>
       <c r="P24" t="n">
-        <v>0.02725389698466183</v>
+        <v>0.02040470457862564</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03291253531990753</v>
+        <v>0.01342641412260949</v>
       </c>
       <c r="R24" t="n">
-        <v>0.04431570516027449</v>
+        <v>0.03061208652010788</v>
       </c>
       <c r="S24" t="n">
-        <v>0.02103943433496159</v>
+        <v>0.02293082626656977</v>
       </c>
       <c r="T24" t="n">
-        <v>0.04384486484235516</v>
+        <v>0.02760263220534565</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.188388018240457</v>
+        <v>0.003948511565755933</v>
       </c>
       <c r="C25" t="n">
-        <v>36.61730955480232</v>
+        <v>36.42</v>
       </c>
       <c r="D25" t="n">
-        <v>4.021741249059533</v>
+        <v>3.42016916996505</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02219872923683194</v>
+        <v>0.0007778391234350061</v>
       </c>
       <c r="F25" t="n">
-        <v>99.36115714285714</v>
+        <v>64</v>
       </c>
       <c r="G25" t="n">
-        <v>9.105148794931637</v>
+        <v>2.289473684210526</v>
       </c>
       <c r="H25" t="n">
-        <v>165.8846195260552</v>
+        <v>165.34</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02958683599618207</v>
+        <v>0.0004159973565660525</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03518099043288316</v>
+        <v>0.0006060256594419978</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04974229865496568</v>
+        <v>0.0006783940296040246</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04333846354453313</v>
+        <v>0.000481832432695221</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03015639010426913</v>
+        <v>0.0008464105008449084</v>
       </c>
       <c r="N25" t="n">
-        <v>0.02513658873571367</v>
+        <v>0.001557571545254592</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01491922355882886</v>
+        <v>0.0008107427094050881</v>
       </c>
       <c r="P25" t="n">
-        <v>0.014494655427479</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.05128858855778533</v>
+        <v>0.0005076916100175361</v>
       </c>
       <c r="R25" t="n">
-        <v>0.02205840180282196</v>
+        <v>0.001146534620608541</v>
       </c>
       <c r="S25" t="n">
-        <v>0.02220928506283017</v>
+        <v>0.0004692510927040779</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02766289598291612</v>
+        <v>0.0006310798904619214</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.081070504589277</v>
+      </c>
+      <c r="C26" t="n">
+        <v>114.0625</v>
+      </c>
+      <c r="D26" t="n">
+        <v>79.63020833333333</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6530757784846237</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>11.14285714285714</v>
+      </c>
+      <c r="H26" t="n">
+        <v>259.4888888888889</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5347880520142538</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.4996943462124037</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.7491615805278947</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.6273019700559379</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2997055044144</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.09022970614533192</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.8182117550369679</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.195236728589952</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.2056917614242185</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.415428527751552</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1971287470123784</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.478437922201836</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2303262362825477</v>
+      </c>
+      <c r="C27" t="n">
+        <v>50.16438661171986</v>
+      </c>
+      <c r="D27" t="n">
+        <v>19.02056074744514</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.08960105148151316</v>
+      </c>
+      <c r="F27" t="n">
+        <v>77.86176470588236</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.173499035144144</v>
+      </c>
+      <c r="H27" t="n">
+        <v>205.6289149552501</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.05635844916361832</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.05881350114411555</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.08637595423167807</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.09093827968348105</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.03537346263253002</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.01676876743383444</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.06148419651692783</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.03024929590611076</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.02981596938046384</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.05000734769146501</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.01965542967245771</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.0569122645841563</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0008265644274992466</v>
+      </c>
+      <c r="C28" t="n">
+        <v>36.38</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.215961451881873</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.000191746434592697</v>
+      </c>
+      <c r="F28" t="n">
+        <v>32</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.545454545454545</v>
+      </c>
+      <c r="H28" t="n">
+        <v>141.5882352941177</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.00029297742166224</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0001232184411469964</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.000194828965998912</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.000163539983179776</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.000141779052904608</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.000139672279517568</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.0002591930916928376</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.0002614963767531214</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0002353383259524131</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0001119063654850176</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.0002125462505796</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4924774382785123</v>
+      </c>
+      <c r="C29" t="n">
+        <v>58.90322580645162</v>
+      </c>
+      <c r="D29" t="n">
+        <v>42.22795698924731</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2398283696437854</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10.32608695652174</v>
+      </c>
+      <c r="H29" t="n">
+        <v>290.6136363636364</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.038288907298656</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.05578525869365324</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.1456996902174576</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.10586536269876</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1695648113832557</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.2424000326426967</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.141787949542958</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.1409716829743488</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.102236275638504</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.058211022460896</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.0515982782702016</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.03010266552093696</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.07159324140230176</v>
+      </c>
+      <c r="C30" t="n">
+        <v>40.65967810442116</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9.256030523128864</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01987206300450419</v>
+      </c>
+      <c r="F30" t="n">
+        <v>89.64560317460317</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.672075205157015</v>
+      </c>
+      <c r="H30" t="n">
+        <v>229.1268447608139</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.003419866353178932</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.007757400693009458</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.01942632412654354</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.01580620185577819</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.02127629662975079</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.02905094590565421</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.01784528663119744</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.01260942246907595</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.01117458212903059</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.008969233920203637</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.006107115096697729</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.003995951647135833</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.000165248940911709</v>
+      </c>
+      <c r="C31" t="n">
+        <v>34.81818181818182</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.193062689210162</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.211040617685185e-05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>62</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.612903225806452</v>
+      </c>
+      <c r="H31" t="n">
+        <v>175.1086956521739</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5.134617461608904e-05</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.703580948542308e-05</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.875812553734561e-05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.08218870082188e-05</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.000110065317386472</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.8576498611808e-05</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5.284603179878401e-06</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3.80106093302712</v>
+      </c>
+      <c r="C32" t="n">
+        <v>75.70833333333333</v>
+      </c>
+      <c r="D32" t="n">
+        <v>34.17569444444445</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.606753207202256</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>256.84</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.03458295698998896</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0496899493441344</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5737708971042048</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9590226630468479</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.056536174104128</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.171338819021504</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.274910517145664</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.606530240352128</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.050047982850333</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.757663670411424</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.7671971597899392</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.137171335625856</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.2067131082817372</v>
+      </c>
+      <c r="C33" t="n">
+        <v>43.19133265706515</v>
+      </c>
+      <c r="D33" t="n">
+        <v>11.20704884694308</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.07894584291134524</v>
+      </c>
+      <c r="F33" t="n">
+        <v>85.982375</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.012333830718093</v>
+      </c>
+      <c r="H33" t="n">
+        <v>227.9497246893015</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.003619364415371899</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.007147356992271483</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.03578883228580875</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.04801321552758689</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.05747839199108945</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.07443745895136178</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.06244275789211803</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.0515113703720223</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.04180309175235675</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.03260795125273865</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.02475145625377825</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.01127186576668089</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.000701188551552384</v>
+      </c>
+      <c r="C34" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.932496150564262</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0001330448950714455</v>
+      </c>
+      <c r="F34" t="n">
+        <v>48</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.216216216216216</v>
+      </c>
+      <c r="H34" t="n">
+        <v>186.1666666666667</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.00013904704354464</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.000346411796628096</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.000378572614701408</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.658972781358453</v>
+      </c>
+      <c r="C35" t="n">
+        <v>53.58823529411764</v>
+      </c>
+      <c r="D35" t="n">
+        <v>32.19607843137255</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7447018393796777</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9.212765957446809</v>
+      </c>
+      <c r="H35" t="n">
+        <v>163.0294117647059</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.3338568207157411</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.2555879221358228</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.52447346357597</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.637839117839572</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.7221440029701809</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.1798722341595661</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.1657310275022976</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.225941251695264</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.08147096568979201</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.189242618501664</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.2500155550702665</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.4021485156865631</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.3780909907825274</v>
+      </c>
+      <c r="C36" t="n">
+        <v>39.38535128945195</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10.21934383506996</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1257266901276941</v>
+      </c>
+      <c r="F36" t="n">
+        <v>93.27272727272727</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.055620933092772</v>
+      </c>
+      <c r="H36" t="n">
+        <v>150.5785744007468</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.07502253328559697</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.07418453647320779</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1165591084752622</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.1207214340676027</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1380476373979684</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.0311121096326268</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.02549939656135996</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.04024973331602702</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.02759142253469069</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.04489975167032218</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.06827533232348502</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.09161643731642223</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.04141573070697709</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35.85106382978724</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.78977461663632</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.006696522743570982</v>
+      </c>
+      <c r="F37" t="n">
+        <v>68</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.676470588235294</v>
+      </c>
+      <c r="H37" t="n">
+        <v>142.9574468085106</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.009210827942286306</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.008164502206436736</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.009902310642110881</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.008820778621175999</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.01021689948109824</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.00255830249618496</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.007146175328839767</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.006367991314945223</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.006231299149139268</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.008798701189461121</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3.758101408901094</v>
+      </c>
+      <c r="C38" t="n">
+        <v>44.53658536585366</v>
+      </c>
+      <c r="D38" t="n">
+        <v>12.530710414247</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9225659669249319</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100</v>
+      </c>
+      <c r="G38" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="H38" t="n">
+        <v>184</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.8811269871679059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.099506834838619</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.182112567913415</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.34895494222574</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.8321335297011402</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.9017608536460915</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6446237249233128</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.5914188620444131</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.429944875992576</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.645712451041392</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.3237722798646424</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.5070542211203266</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5722150087133919</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37.510008664257</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.789012461718628</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1253484962345156</v>
+      </c>
+      <c r="F39" t="n">
+        <v>96.79504000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8.388643336232342</v>
+      </c>
+      <c r="H39" t="n">
+        <v>156.5998174574189</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1133458841846234</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.1251960226389266</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1675069516267949</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.1653551077778264</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.1399927300532599</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.09253416418478259</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.06994729201140526</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.05790180977183292</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.05051039079567288</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.08853619431143744</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.05202330946732223</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.1074967426194561</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.02808644261328058</v>
+      </c>
+      <c r="C40" t="n">
+        <v>34.96</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.780644109693581</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.001847703217111611</v>
+      </c>
+      <c r="F40" t="n">
+        <v>82</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.590909090909091</v>
+      </c>
+      <c r="H40" t="n">
+        <v>147.98</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.004460487799213824</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.00496048289032548</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.006134941093168441</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.00609115758495552</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.00286756776801152</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.002557572815758889</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.00179951456605824</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.00111645397426752</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.001479077246479392</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.00238284807844032</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.003343116716802947</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.624483311145372</v>
+      </c>
+      <c r="C41" t="n">
+        <v>54.96875</v>
+      </c>
+      <c r="D41" t="n">
+        <v>14.4219696969697</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1094708590468779</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" t="n">
+        <v>24.47916666666667</v>
+      </c>
+      <c r="H41" t="n">
+        <v>197.3191489361702</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.1295424682407622</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.1615229175627648</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.201429622941372</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.10459110460176</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.09899762125916881</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.07373037705772653</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.146549875219776</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.052900400144256</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.2238839040768349</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.1984312572317568</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.111339575483472</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.081307860653376</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.06319440364545209</v>
+      </c>
+      <c r="C42" t="n">
+        <v>37.54740112394527</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.274562004567976</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.01119322202148215</v>
+      </c>
+      <c r="F42" t="n">
+        <v>96.85933333333334</v>
+      </c>
+      <c r="G42" t="n">
+        <v>11.18326897406513</v>
+      </c>
+      <c r="H42" t="n">
+        <v>177.00425760461</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0111966073203253</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.01432893935973253</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.01808024387005558</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.01161323880128753</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.00998087936681811</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.008065972854403384</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.01033201966189324</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.00681096107690716</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.02606247248842048</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.01927876516240684</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.01026876715961485</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.008969666813620941</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0001293665742867181</v>
+      </c>
+      <c r="C43" t="n">
+        <v>33.71111111111111</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.438452030781442</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.243439348886171e-05</v>
+      </c>
+      <c r="F43" t="n">
+        <v>64</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.863636363636364</v>
+      </c>
+      <c r="H43" t="n">
+        <v>149.48</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.05940496604752e-05</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.657182627603172e-05</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.145839904753507e-05</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2.547304556586634e-05</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.659789286452337e-05</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.251628782159241e-05</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.731808500405992e-05</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.739025898267392e-05</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.59424979031864e-05</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7.844332845132e-06</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.7807574868704e-05</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.524705880416768e-05</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2.13358863171744</v>
+      </c>
+      <c r="C44" t="n">
+        <v>63.82142857142857</v>
+      </c>
+      <c r="D44" t="n">
+        <v>33.63414634146341</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.428510025046534</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="H44" t="n">
+        <v>272.075</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.159068186764704</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.1208984716080443</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.149485765875264</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.191811522825216</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8233165842041796</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.19759872988448</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.2364897562619372</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.02477157740568</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.086364116782272</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.09786302184960001</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.047952880706304</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.08155251820800001</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.2736408444946237</v>
+      </c>
+      <c r="C45" t="n">
+        <v>41.25533316185729</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20.72311589410549</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.1574706953193724</v>
+      </c>
+      <c r="F45" t="n">
+        <v>88.98685714285715</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.619003526092749</v>
+      </c>
+      <c r="H45" t="n">
+        <v>234.1795328836884</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.01354995162840668</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.01216278934835016</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.01885687065314142</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.03049216310331453</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.112737403202116</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.1492867787712853</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.0377280335725616</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.00145181928813168</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.003427600329747669</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.003665378971069252</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.005510745598864926</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.01044526837650516</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.007297033895438112</v>
+      </c>
+      <c r="C46" t="n">
+        <v>35.02083333333334</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9.125558794946551</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.002158562015941318</v>
+      </c>
+      <c r="F46" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="H46" t="n">
+        <v>188.3414634146341</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.00019607555449152</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.001907033680189779</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.002886887186458899</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3.356276158041934</v>
+      </c>
+      <c r="C47" t="n">
+        <v>73.04000000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>47.29166666666666</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9239822074046888</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100</v>
+      </c>
+      <c r="G47" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="H47" t="n">
+        <v>273.3333333333333</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.219021949090658</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8689368200534524</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.7424096425738822</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.54104270651136</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.2087662913606592</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.18532809762768</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.1008981735701069</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.0157699269494784</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.009321452831174401</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.04195877061801601</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.6303310635893761</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.307044355438516</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1976375707452317</v>
+      </c>
+      <c r="C48" t="n">
+        <v>42.94956080546897</v>
+      </c>
+      <c r="D48" t="n">
+        <v>12.22631710660159</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.05483607848421771</v>
+      </c>
+      <c r="F48" t="n">
+        <v>87.3558</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5.471468915976236</v>
+      </c>
+      <c r="H48" t="n">
+        <v>159.1224065394636</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.05635660609971611</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.05080379423967259</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.049710161599043</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.04030102758013471</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.02293152539704072</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.01840038144531432</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.002944289537183348</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.0009526073082127521</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.001006540317380743</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.003347469095904368</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.02536439292285567</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.04840588098737357</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.00445935965604528</v>
+      </c>
+      <c r="C49" t="n">
+        <v>36.02</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.052156314061045</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0004946141672984701</v>
+      </c>
+      <c r="F49" t="n">
+        <v>50</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.027777777777778</v>
+      </c>
+      <c r="H49" t="n">
+        <v>104.3125</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2.499819146565048</v>
+      </c>
+      <c r="C50" t="n">
+        <v>90.75</v>
+      </c>
+      <c r="D50" t="n">
+        <v>46.0375</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.568615892119242</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11.76595744680851</v>
+      </c>
+      <c r="H50" t="n">
+        <v>266.3888888888889</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.2046617341535487</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.1656331644804507</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.1268467868207248</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.171190968596325</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.9237689810499184</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.50480927009613</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.2980373847237818</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.0623713659254784</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.02643769535266944</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.07825698094721473</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.2037058627773433</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.2148390886084074</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.3249813211495739</v>
+      </c>
+      <c r="C51" t="n">
+        <v>42.15796002146218</v>
+      </c>
+      <c r="D51" t="n">
+        <v>13.17494761139002</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1340981908144946</v>
+      </c>
+      <c r="F51" t="n">
+        <v>88.48548076923076</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4.92873129607123</v>
+      </c>
+      <c r="H51" t="n">
+        <v>176.4774534140397</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.04240747953130856</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.03554627881468779</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.03721977260430807</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.0317363322041785</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.08673608871040865</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.1176244304407748</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.0294491604750454</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.002858163338872899</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.003099924833553287</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.006208323849870911</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.02893384719590538</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.04163315925990947</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.001862342563110774</v>
+      </c>
+      <c r="C52" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.111482292836703</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.001093340469763119</v>
+      </c>
+      <c r="F52" t="n">
+        <v>40</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H52" t="n">
+        <v>82.98</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.0003409277714283263</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0012477535285824</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0005346765771357292</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5.092654648822595</v>
+      </c>
+      <c r="C53" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="D53" t="n">
+        <v>16.40436466686467</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.8673724950047269</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100</v>
+      </c>
+      <c r="G53" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H53" t="n">
+        <v>200.46</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.962473409984869</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.8323168455790273</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.296373657164951</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.429489023171127</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.7009540880625361</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.811227061054208</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.578370459131136</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.4753696286344321</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.14197689073312</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.39335497948992</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.4715529707822976</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.8540408053792743</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.1863170036060816</v>
+      </c>
+      <c r="C54" t="n">
+        <v>37.06337415837456</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.185050030352067</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0221902807053656</v>
+      </c>
+      <c r="F54" t="n">
+        <v>98.37189268292684</v>
+      </c>
+      <c r="G54" t="n">
+        <v>12.29454571435586</v>
+      </c>
+      <c r="H54" t="n">
+        <v>167.9584971865991</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.03206200316850002</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.03569741944988686</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.04624140402340191</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.03946208245259007</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.02773988849930562</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.03384186101600576</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.01897412811925424</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.01505761411332526</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.04859285671349306</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.02228435653848272</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.02197233663387704</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.02836732758805773</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0007253778439780589</v>
+      </c>
+      <c r="C55" t="n">
+        <v>35.38297872340426</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.36575881833101</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.217280106721927e-05</v>
+      </c>
+      <c r="F55" t="n">
+        <v>40</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4.454545454545454</v>
+      </c>
+      <c r="H55" t="n">
+        <v>141.64</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9.343655504256529e-05</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0001149259547776138</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.0001072049576388359</v>
+      </c>
+      <c r="L55" t="n">
+        <v>7.767571537368721e-05</v>
+      </c>
+      <c r="M55" t="n">
+        <v>7.27475646588096e-05</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.0001020103380937414</v>
+      </c>
+      <c r="O55" t="n">
+        <v>9.358060850458879e-05</v>
+      </c>
+      <c r="P55" t="n">
+        <v>6.77579097531168e-05</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.0001625423240403648</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7.489841524021441e-05</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5.90817412222632e-05</v>
+      </c>
+      <c r="T55" t="n">
+        <v>8.958566166369938e-05</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.2340497961647267</v>
+      </c>
+      <c r="C56" t="n">
+        <v>78.47826086956522</v>
+      </c>
+      <c r="D56" t="n">
+        <v>33.90520833333333</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.1490793667403878</v>
+      </c>
+      <c r="F56" t="n">
+        <v>100</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="H56" t="n">
+        <v>273.64</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.04350989951433216</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.06276689563878721</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.02472906815556408</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0473097808484352</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.117185444139469</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.1031250412552054</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.0559496876345856</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.016575549325776</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.01080713583162864</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.00991107753781824</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.05034877718765761</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.05158674441405504</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1161754354183892</v>
+      </c>
+      <c r="C57" t="n">
+        <v>52.19702366531654</v>
+      </c>
+      <c r="D57" t="n">
+        <v>22.25147275265112</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.06064995171898954</v>
+      </c>
+      <c r="F57" t="n">
+        <v>71.2091875</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.496292753716059</v>
+      </c>
+      <c r="H57" t="n">
+        <v>234.9656948933186</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.00415290907877076</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.01559022772316103</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.006311269007837156</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.02025646847781229</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.05203702889421468</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.05224578798050653</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.02532288016441372</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.006987516371993522</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.003045853423739829</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.002755649905886783</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.005097550564227706</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.003420371593589724</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.006568475889551343</v>
+      </c>
+      <c r="C58" t="n">
+        <v>36.52</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.186048451548452</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0008758732113690094</v>
+      </c>
+      <c r="F58" t="n">
+        <v>46</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.03030303030303</v>
+      </c>
+      <c r="H58" t="n">
+        <v>186.2608695652174</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>7.052254012036797e-05</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.0008694857649609601</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.001723056432429207</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.001346029410055428</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.0005391640860026399</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3.996073392192e-05</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.14918099982439</v>
+      </c>
+      <c r="C59" t="n">
+        <v>49.21621621621622</v>
+      </c>
+      <c r="D59" t="n">
+        <v>20.35374149659864</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.2031477641576334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>100</v>
+      </c>
+      <c r="G59" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="H59" t="n">
+        <v>233.6808510638298</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.268185456127008</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.266699671185906</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.2938038868162747</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.2114697573392544</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.232415939122992</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.3149884463265792</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.348392357784576</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.273119383478592</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.343499206692096</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.2689275840427008</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.1216091962689882</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.1805654305643328</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1200517262702408</v>
+      </c>
+      <c r="C60" t="n">
+        <v>36.97946158545813</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.468139587952599</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.01843949868155686</v>
+      </c>
+      <c r="F60" t="n">
+        <v>98.45833566433566</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10.33366175348841</v>
+      </c>
+      <c r="H60" t="n">
+        <v>183.8867452712803</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.01782519287742545</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.01954068278691077</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.02866832714216121</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.02387334691495033</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.02249076856065419</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0254613763925903</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.02402746281505069</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.01768351491364164</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.02064496414887514</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.01751709713519818</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.01197118421739367</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.01572414102893812</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.001920977721641261</v>
+      </c>
+      <c r="C61" t="n">
+        <v>35.47916666666666</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.485895038375919</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0001434761134080133</v>
+      </c>
+      <c r="F61" t="n">
+        <v>74</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.061224489795918</v>
+      </c>
+      <c r="H61" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0001943710172428209</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0002404005131735424</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.000291777434608608</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.00029160122291748</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.0002968555745213474</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.0002370825803366031</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.0001870073381162357</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.000250040020825728</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.000173485506947904</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.000159837838655292</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.0001836609311483136</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.850166879536576</v>
+      </c>
+      <c r="C62" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>51.51388888888889</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.3918983752839763</v>
+      </c>
+      <c r="F62" t="n">
+        <v>100</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="H62" t="n">
+        <v>248.6170212765958</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.022875481357344</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.17248357600992</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.156947821291296</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.2361924032340096</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.328513931471376</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.2928061613740032</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.06980268231541661</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.01651438493712</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.022753152580032</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.025852148271936</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.007665936711552</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.004538984816406309</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.2095843569580451</v>
+      </c>
+      <c r="C63" t="n">
+        <v>60.61460151400076</v>
+      </c>
+      <c r="D63" t="n">
+        <v>24.82589149024807</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.09335542484878323</v>
+      </c>
+      <c r="F63" t="n">
+        <v>67.65300000000001</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.243834184943906</v>
+      </c>
+      <c r="H63" t="n">
+        <v>185.5223022724275</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.00513421878292155</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.03110854972606713</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.03556099391391501</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.05578126887213621</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.07981836925487597</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.07878300759850623</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.02053350596032033</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.003951899111496</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.004229111529425299</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.004969880943775367</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.002139126734776262</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.00158651181554934</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0049740240063696</v>
+      </c>
+      <c r="C64" t="n">
+        <v>36.22</v>
+      </c>
+      <c r="D64" t="n">
+        <v>8.309318903318903</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.001129023317918539</v>
+      </c>
+      <c r="F64" t="n">
+        <v>36</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>7.95137052528e-05</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.00062510005206432</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2.44657554624e-06</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1.605384155629578</v>
+      </c>
+      <c r="C65" t="n">
+        <v>47.92105263157895</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10.02172388335179</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.215587473130975</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100</v>
+      </c>
+      <c r="G65" t="n">
+        <v>16.91304347826087</v>
+      </c>
+      <c r="H65" t="n">
+        <v>184.86</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.3882913762873116</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.347903042675328</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.4016016689826502</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.394462734528912</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.216888922174176</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.1166282562892608</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.468478440845856</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.116987087369376</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.23714307258912</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.281096239165812</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.217378237283424</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.3589982627775264</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4000997660041888</v>
+      </c>
+      <c r="C66" t="n">
+        <v>37.46314617472733</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.712999910329367</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.05037249094614927</v>
+      </c>
+      <c r="F66" t="n">
+        <v>93.98912903225806</v>
+      </c>
+      <c r="G66" t="n">
+        <v>8.661210400455056</v>
+      </c>
+      <c r="H66" t="n">
+        <v>156.9327205560713</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.08770312344108919</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.08803739855896682</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.1190941266251778</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.09203711920304974</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.05518318169874965</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.03237825136516854</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.06446169040681154</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.01946236736582665</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.04525340931410984</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.04584345171340388</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.04955333051334894</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.08279486832183276</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.004903830926603577</v>
+      </c>
+      <c r="C67" t="n">
+        <v>30</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.042669023440582</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0002669857113219829</v>
+      </c>
+      <c r="F67" t="n">
+        <v>14.583</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4</v>
+      </c>
+      <c r="H67" t="n">
+        <v>137.5510204081633</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0005547934222359062</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0008798301582121885</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0008038050906706037</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0007712707080744272</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.0009558974540455201</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.000313237397257055</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.0002171244050705011</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.0002685985196317309</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.0004591761768424944</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.0009008652031148739</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.741251116978496</v>
+      </c>
+      <c r="C68" t="n">
+        <v>62.32142857142857</v>
+      </c>
+      <c r="D68" t="n">
+        <v>31.56481481481481</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.6735047143042301</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100</v>
+      </c>
+      <c r="G68" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="H68" t="n">
+        <v>291.12</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.53335346908032</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.490798345672908</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.8203204701506304</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.543937173665536</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.194411009343096</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.2206426680836928</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.3770172916755841</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.166204032107904</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.2759514800199971</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.3698561650517395</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.1508502022375901</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.43331571341184</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1835133472284905</v>
+      </c>
+      <c r="C69" t="n">
+        <v>40.76226746395799</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10.8633368125298</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.06021251266637449</v>
+      </c>
+      <c r="F69" t="n">
+        <v>90.09104000000001</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.019925932800756</v>
+      </c>
+      <c r="H69" t="n">
+        <v>212.0989451177527</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0491136565518296</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.05443533818289285</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.06744914485769231</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.04991765641726562</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.01933756270101967</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.02442595751322062</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.03929044278258456</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.02725389698466183</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.03291253531990753</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.04431570516027449</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.02103943433496159</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.04384486484235516</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.001792549981003277</v>
+      </c>
+      <c r="C70" t="n">
+        <v>35.16</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.509906517752002</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0004194443917239006</v>
+      </c>
+      <c r="F70" t="n">
+        <v>57.143</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.722222222222222</v>
+      </c>
+      <c r="H70" t="n">
+        <v>149.093023255814</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.00040525776369504</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.0002265528955818239</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.000170200105500096</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.0003657141126519551</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.0007703124659854848</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.0007698817204120407</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.000468369704154912</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.00012171713342544</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.000541357266224448</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2.15908334695243</v>
+      </c>
+      <c r="C71" t="n">
+        <v>40.65116279069768</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6.054240988480119</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.2953370464051086</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100</v>
+      </c>
+      <c r="G71" t="n">
+        <v>13.15555555555556</v>
+      </c>
+      <c r="H71" t="n">
+        <v>184.74</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.292515729180127</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.277808653275552</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.5658331186652928</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.6698199579416639</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.261774522056768</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.2775424082896377</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.112297817572416</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.2394708144659712</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.843998661294336</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.250651664712288</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.2022217017744672</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.2954710467382154</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.188388018240457</v>
+      </c>
+      <c r="C72" t="n">
+        <v>36.61730955480232</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4.021741249059533</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.02219872923683194</v>
+      </c>
+      <c r="F72" t="n">
+        <v>99.36115714285714</v>
+      </c>
+      <c r="G72" t="n">
+        <v>9.105148794931637</v>
+      </c>
+      <c r="H72" t="n">
+        <v>165.8846195260552</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.02958683599618207</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.03518099043288316</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.04974229865496568</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.04333846354453313</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.03015639010426913</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.02513658873571367</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.01491922355882886</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.014494655427479</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.05128858855778533</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.02205840180282196</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.02220928506283017</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.02766289598291612</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.001919822937983436</v>
+      </c>
+      <c r="C73" t="n">
+        <v>35.52</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.688184859058582</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0002982542729398736</v>
+      </c>
+      <c r="F73" t="n">
+        <v>89.583</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.897959183673469</v>
+      </c>
+      <c r="H73" t="n">
+        <v>144.3</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0002703317701289367</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.00029549195764032</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.000406851921253344</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.0003909257029626938</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.0003866865837257239</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.000301418107296768</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.000129885977332608</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.000253465226590464</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.0004594812792047322</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.0003405201411740273</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.0003425858184881664</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.00026995339821816</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B74" t="n">
+        <v>2.269693231279236</v>
+      </c>
+      <c r="C74" t="n">
+        <v>38.87234042553192</v>
+      </c>
+      <c r="D74" t="n">
+        <v>13.540625</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.5576406798376332</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100</v>
+      </c>
+      <c r="G74" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="H74" t="n">
+        <v>116.375</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.8484903012083216</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.4640264147382284</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.374081401020096</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.2371451285349572</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.04535061398893964</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.1315279013658624</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.0014924110832064</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.0109606584471552</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.0171749603346048</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.418384806536592</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.866863486834841</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
         <v>0.4173840135162455</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C75" t="n">
         <v>37.60601322550296</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D75" t="n">
         <v>6.945945479413031</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E75" t="n">
         <v>0.0907492012508325</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F75" t="n">
         <v>96.7959</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G75" t="n">
         <v>6.297476534230714</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H75" t="n">
         <v>108.3040793711101</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I75" t="n">
         <v>0.1481174775880977</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J75" t="n">
         <v>0.08693168120852571</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K75" t="n">
         <v>0.0706176631527789</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L75" t="n">
         <v>0.04791036205684989</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M75" t="n">
         <v>0.01391126798789595</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N75" t="n">
         <v>0.03000209708459289</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O75" t="n">
         <v>8.636411678227199e-05</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
         <v>0.001623547532484864</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R75" t="n">
         <v>0.00409231320153164</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S75" t="n">
         <v>0.07858318986603854</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T75" t="n">
         <v>0.1560134949943552</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0121711261644129</v>
+      </c>
+      <c r="C76" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.26037571097633</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.001156460525457606</v>
+      </c>
+      <c r="F76" t="n">
+        <v>94</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.708333333333333</v>
+      </c>
+      <c r="H76" t="n">
+        <v>101.1914893617021</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.003724355229253527</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.00246431321895024</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.00154565322723648</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.0005730695454476161</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.001735217175254867</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.00373704220623384</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
   </sheetData>
